--- a/excel-domaca-naloga/Tom-Štampohar.xlsx
+++ b/excel-domaca-naloga/Tom-Štampohar.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12fe301d554e4639/Dokumenti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unilj-my.sharepoint.com/personal/ts28346_student_uni-lj_si/Documents/RP/TomStamp/racunalniski-praktikum/excel-domaca-naloga/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{E61C532F-B35F-4D99-A6F5-FCFB4AC56836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78E9E7A0-7846-46DA-9E0E-9D1E45D43AAB}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{E61C532F-B35F-4D99-A6F5-FCFB4AC56836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3A4E090-041E-4790-B185-FE30941110B5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C383D0F4-5436-4F6F-8CA0-D8F06726C01F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C383D0F4-5436-4F6F-8CA0-D8F06726C01F}"/>
   </bookViews>
   <sheets>
     <sheet name="podatki-sl" sheetId="2" r:id="rId1"/>
@@ -6781,30 +6781,7 @@
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -20194,13 +20171,13 @@
     <dataField name="Povprečje od Napad" fld="3" subtotal="average" baseField="9" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="10">
+    <format dxfId="3">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="2">
       <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20243,20 +20220,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E511CB7F-A1AB-4D28-8038-9ACF1467249B}" name="podatki_sl" displayName="podatki_sl" ref="B2:O803" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B2:O803" xr:uid="{E511CB7F-A1AB-4D28-8038-9ACF1467249B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{7892AD54-BEFC-43E8-9CE4-CB40123191E4}" uniqueName="1" name="Ime" queryTableFieldId="1" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{57A1C2EB-E9ED-44EC-8B79-BCEEDBF59BC6}" uniqueName="2" name="Japonsko ime" queryTableFieldId="2" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{5D551E71-5125-42AA-AA5E-B4DEA647E612}" uniqueName="3" name="Klasifikacija" queryTableFieldId="3" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{7892AD54-BEFC-43E8-9CE4-CB40123191E4}" uniqueName="1" name="Ime" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{57A1C2EB-E9ED-44EC-8B79-BCEEDBF59BC6}" uniqueName="2" name="Japonsko ime" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{5D551E71-5125-42AA-AA5E-B4DEA647E612}" uniqueName="3" name="Klasifikacija" queryTableFieldId="3" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{98032540-06DF-4463-989B-7EB54E44D3FA}" uniqueName="4" name="Napad" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{E72F1126-4FC0-4E8A-8455-D5028AD31EF1}" uniqueName="5" name="Obramba" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{CDC5586E-35BD-43DA-AA5C-E6ED529A8DBA}" uniqueName="6" name="Višina (m)" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{393E7D5D-96B1-4705-B020-24DE1FAFA254}" uniqueName="7" name="Masa (kg)" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{0F77BCBE-771C-4A53-9EC1-F38B6020989C}" uniqueName="8" name="HP" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{FAC4552E-795B-48C7-901B-BD44EDF81908}" uniqueName="9" name="Hitrost" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{438B1676-2D1A-458F-BD42-AA6F9D8CF941}" uniqueName="10" name="Tip 1" queryTableFieldId="10" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{E5FC0007-2D42-47D3-9345-BD17F85187B0}" uniqueName="11" name="Tip 2" queryTableFieldId="11" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{438B1676-2D1A-458F-BD42-AA6F9D8CF941}" uniqueName="10" name="Tip 1" queryTableFieldId="10" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{E5FC0007-2D42-47D3-9345-BD17F85187B0}" uniqueName="11" name="Tip 2" queryTableFieldId="11" dataDxfId="5"/>
     <tableColumn id="12" xr3:uid="{14A04C72-9DD9-4A2A-A1F7-8D0B36FC4E58}" uniqueName="12" name="Generacija" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{198E5D3D-4813-4500-B325-931786B4B8AF}" uniqueName="13" name="Legendaren" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{6AAC5ADB-8A74-47AF-B0D6-A3D3AE0C3FC2}" uniqueName="14" name="Potencial" queryTableFieldId="14" dataDxfId="11">
+    <tableColumn id="14" xr3:uid="{6AAC5ADB-8A74-47AF-B0D6-A3D3AE0C3FC2}" uniqueName="14" name="Potencial" queryTableFieldId="14" dataDxfId="4">
       <calculatedColumnFormula>podatki_sl[[#This Row],[Napad]]^$E$1+podatki_sl[[#This Row],[Obramba]]^$F$1+podatki_sl[[#This Row],[HP]]^$I$1+podatki_sl[[#This Row],[Hitrost]]^$J$1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -20583,8 +20560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C1F0E1-F4BC-493F-BBF8-0780068A9A4A}">
   <dimension ref="B1:O803"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56589,7 +56566,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3:O803">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>2000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56605,7 +56582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCAB4B9-BDD7-4C76-B934-8788F7DE30AE}">
   <dimension ref="B3:U22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
